--- a/Code/Results/Cases/Case_2_186/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_186/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.479305854834081</v>
+        <v>0.8541137727896171</v>
       </c>
       <c r="C2">
-        <v>0.5958374241559454</v>
+        <v>0.183985948966523</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2166503466317664</v>
+        <v>0.4174314395421561</v>
       </c>
       <c r="F2">
-        <v>1.70777417117047</v>
+        <v>2.205666631589509</v>
       </c>
       <c r="G2">
-        <v>0.7668197229440921</v>
+        <v>0.6997424251554634</v>
       </c>
       <c r="H2">
-        <v>0.4805985490345677</v>
+        <v>0.7622076140005305</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01886108137935683</v>
+        <v>0.04388747973701257</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8944159263540854</v>
+        <v>0.5261687831778019</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.147300791070734</v>
+        <v>0.7571582265736083</v>
       </c>
       <c r="C3">
-        <v>0.5211422999960291</v>
+        <v>0.1608815714697869</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1997360924124223</v>
+        <v>0.4148040345251474</v>
       </c>
       <c r="F3">
-        <v>1.566408707520722</v>
+        <v>2.189102623575053</v>
       </c>
       <c r="G3">
-        <v>0.6985903742192079</v>
+        <v>0.691424154893042</v>
       </c>
       <c r="H3">
-        <v>0.4589460227428077</v>
+        <v>0.7648105485959604</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02086062736176686</v>
+        <v>0.04483466890276588</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7776407032531196</v>
+        <v>0.495007284331578</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.944912625445625</v>
+        <v>0.6977140531216435</v>
       </c>
       <c r="C4">
-        <v>0.4754967121585878</v>
+        <v>0.1466413201532646</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1895334112925795</v>
+        <v>0.4133148069065484</v>
       </c>
       <c r="F4">
-        <v>1.483365948879509</v>
+        <v>2.180387993191488</v>
       </c>
       <c r="G4">
-        <v>0.6595019270546061</v>
+        <v>0.6870750226299691</v>
       </c>
       <c r="H4">
-        <v>0.447201010461697</v>
+        <v>0.766985371236899</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02218258978412813</v>
+        <v>0.04545068618959647</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7065618679756724</v>
+        <v>0.4760572331909572</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.862736983581669</v>
+        <v>0.6735121508067152</v>
       </c>
       <c r="C5">
-        <v>0.4569358794165908</v>
+        <v>0.1408247787686605</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1854183500598552</v>
+        <v>0.4127392152161242</v>
       </c>
       <c r="F5">
-        <v>1.450394507849737</v>
+        <v>2.177201813166249</v>
       </c>
       <c r="G5">
-        <v>0.6442174978341058</v>
+        <v>0.6854920388774843</v>
       </c>
       <c r="H5">
-        <v>0.4427765476693821</v>
+        <v>0.7680161174217233</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02274369663058984</v>
+        <v>0.04571034971256349</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.677729805856977</v>
+        <v>0.4683812239829592</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.849107933168199</v>
+        <v>0.6694947841625662</v>
       </c>
       <c r="C6">
-        <v>0.4538558862539048</v>
+        <v>0.1398581320219421</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1847375279792125</v>
+        <v>0.4126455308201287</v>
       </c>
       <c r="F6">
-        <v>1.444970015626836</v>
+        <v>2.17669477388776</v>
       </c>
       <c r="G6">
-        <v>0.6417167556680852</v>
+        <v>0.6852405803854964</v>
       </c>
       <c r="H6">
-        <v>0.44206293641993</v>
+        <v>0.7681959840075336</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02283818464661547</v>
+        <v>0.04575398712943279</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6729496610455712</v>
+        <v>0.4671094308433865</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.94380325202431</v>
+        <v>0.6973875680820072</v>
       </c>
       <c r="C7">
-        <v>0.475246250270061</v>
+        <v>0.1465629308933103</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1894777458336989</v>
+        <v>0.4133069174908535</v>
       </c>
       <c r="F7">
-        <v>1.482917861112966</v>
+        <v>2.180343546240181</v>
       </c>
       <c r="G7">
-        <v>0.6592932638557727</v>
+        <v>0.6870529092060877</v>
       </c>
       <c r="H7">
-        <v>0.447139911503271</v>
+        <v>0.7669986878895827</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02219006802662893</v>
+        <v>0.04545415319264068</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7061725189792298</v>
+        <v>0.4759535241267656</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.364483263741363</v>
+        <v>0.8206655563329264</v>
       </c>
       <c r="C8">
-        <v>0.5700282234356848</v>
+        <v>0.1760308170477458</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.210778295660333</v>
+        <v>0.4164998286592692</v>
       </c>
       <c r="F8">
-        <v>1.658204675839045</v>
+        <v>2.199652636632095</v>
       </c>
       <c r="G8">
-        <v>0.7426741226574336</v>
+        <v>0.6967160721696359</v>
       </c>
       <c r="H8">
-        <v>0.4727936314937295</v>
+        <v>0.7629851248006219</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01953015189523377</v>
+        <v>0.04420690557453621</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8540082735122212</v>
+        <v>0.5153863836239054</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.204498469515329</v>
+        <v>1.063106749200131</v>
       </c>
       <c r="C9">
-        <v>0.7583532624625207</v>
+        <v>0.2333880885129531</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2541640325434358</v>
+        <v>0.4237414736515888</v>
       </c>
       <c r="F9">
-        <v>2.035452614951282</v>
+        <v>2.249116557699125</v>
       </c>
       <c r="G9">
-        <v>0.9314306071786547</v>
+        <v>0.7217457707123032</v>
       </c>
       <c r="H9">
-        <v>0.536773089345516</v>
+        <v>0.7597132284355865</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01512607705432689</v>
+        <v>0.04203556294866928</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.150001112331481</v>
+        <v>0.5941633002819771</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.836184874532023</v>
+        <v>1.241676097301365</v>
       </c>
       <c r="C10">
-        <v>0.8993567125182551</v>
+        <v>0.2752711952300615</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2872789317207989</v>
+        <v>0.4296557123859586</v>
       </c>
       <c r="F10">
-        <v>2.33872628412287</v>
+        <v>2.292602933335687</v>
       </c>
       <c r="G10">
-        <v>1.090095918611979</v>
+        <v>0.743932182203821</v>
       </c>
       <c r="H10">
-        <v>0.5942266396291416</v>
+        <v>0.7601465546341473</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01248500526060781</v>
+        <v>0.04060928695851374</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.37296721967428</v>
+        <v>0.6529248781580179</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.128059550726562</v>
+        <v>1.323016128101642</v>
       </c>
       <c r="C11">
-        <v>0.9643669958234113</v>
+        <v>0.2942703480332227</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3026762472515472</v>
+        <v>0.4324744613804512</v>
       </c>
       <c r="F11">
-        <v>2.483786448399712</v>
+        <v>2.31395407718729</v>
       </c>
       <c r="G11">
-        <v>1.167774521315096</v>
+        <v>0.7548694890838021</v>
       </c>
       <c r="H11">
-        <v>0.6231651170776331</v>
+        <v>0.7609671083279181</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0114381697098338</v>
+        <v>0.03999749547932741</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.476044842366207</v>
+        <v>0.6798497658408422</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.239360902746228</v>
+        <v>1.353833190165062</v>
       </c>
       <c r="C12">
-        <v>0.9891367643500075</v>
+        <v>0.3014571348140294</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3085605627403751</v>
+        <v>0.4335602245336005</v>
       </c>
       <c r="F12">
-        <v>2.539871461339402</v>
+        <v>2.322266021071641</v>
       </c>
       <c r="G12">
-        <v>1.198089903175571</v>
+        <v>0.7591341500843498</v>
       </c>
       <c r="H12">
-        <v>0.6345767965271136</v>
+        <v>0.7613680609314599</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01106645818041052</v>
+        <v>0.03977118245730438</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.515356805005467</v>
+        <v>0.6900733370649448</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.215353560087692</v>
+        <v>1.347195503766102</v>
       </c>
       <c r="C13">
-        <v>0.9837949343727246</v>
+        <v>0.2999096786076052</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3072907840015446</v>
+        <v>0.4333255706806582</v>
       </c>
       <c r="F13">
-        <v>2.527738953880061</v>
+        <v>2.320465793602153</v>
       </c>
       <c r="G13">
-        <v>1.191519033007353</v>
+        <v>0.7582101875011631</v>
       </c>
       <c r="H13">
-        <v>0.6320980622554657</v>
+        <v>0.7612776865257729</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01114537152066042</v>
+        <v>0.03981968411481329</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.506877163244255</v>
+        <v>0.6878702790057929</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.13720008454618</v>
+        <v>1.32555115940329</v>
       </c>
       <c r="C14">
-        <v>0.9664016107800535</v>
+        <v>0.2948617655543728</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3031592422576139</v>
+        <v>0.4325634202346791</v>
       </c>
       <c r="F14">
-        <v>2.48837665600638</v>
+        <v>2.314633355426395</v>
       </c>
       <c r="G14">
-        <v>1.170249874615394</v>
+        <v>0.755217872869963</v>
       </c>
       <c r="H14">
-        <v>0.624094568859249</v>
+        <v>0.7609982833431559</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01140707842662891</v>
+        <v>0.03997876896774066</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.479273220911736</v>
+        <v>0.6806903110894211</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.089433678611385</v>
+        <v>1.312295369105641</v>
       </c>
       <c r="C15">
-        <v>0.9557683242263124</v>
+        <v>0.2917687581756638</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3006357267748854</v>
+        <v>0.4320989699820217</v>
       </c>
       <c r="F15">
-        <v>2.46442058029001</v>
+        <v>2.311090378598237</v>
       </c>
       <c r="G15">
-        <v>1.157342586030751</v>
+        <v>0.7534010484268094</v>
       </c>
       <c r="H15">
-        <v>0.6192528243403217</v>
+        <v>0.7608389082025724</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01157067713910465</v>
+        <v>0.04007691197886309</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.46240261713848</v>
+        <v>0.6762959753944386</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.817211456981511</v>
+        <v>1.236362492432534</v>
       </c>
       <c r="C16">
-        <v>0.8951278300225169</v>
+        <v>0.2740284703550628</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2862798657249641</v>
+        <v>0.4294740751608543</v>
       </c>
       <c r="F16">
-        <v>2.329400158038155</v>
+        <v>2.29123925257538</v>
       </c>
       <c r="G16">
-        <v>1.085139181544974</v>
+        <v>0.743234526080812</v>
       </c>
       <c r="H16">
-        <v>0.5923960066365339</v>
+        <v>0.7601055239169767</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0125567336197614</v>
+        <v>0.04065001701982407</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.366267488958044</v>
+        <v>0.6511691598297062</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.651453624537169</v>
+        <v>1.189807653387447</v>
       </c>
       <c r="C17">
-        <v>0.8581672320738676</v>
+        <v>0.2631315838363264</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.277562272437784</v>
+        <v>0.4278965917028259</v>
       </c>
       <c r="F17">
-        <v>2.248477961412732</v>
+        <v>2.279463870864078</v>
       </c>
       <c r="G17">
-        <v>1.042327486079202</v>
+        <v>0.737215073467965</v>
       </c>
       <c r="H17">
-        <v>0.5766720412579076</v>
+        <v>0.7598157027458825</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01320290725734186</v>
+        <v>0.04101110673813313</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.307742252042502</v>
+        <v>0.635804210323542</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.556531014174766</v>
+        <v>1.163040709213419</v>
       </c>
       <c r="C18">
-        <v>0.8369882894084242</v>
+        <v>0.2568589332734348</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.272579125006601</v>
+        <v>0.4270013494544571</v>
       </c>
       <c r="F18">
-        <v>2.202593113431305</v>
+        <v>2.272838595057323</v>
       </c>
       <c r="G18">
-        <v>1.018213881635248</v>
+        <v>0.7338322518910161</v>
       </c>
       <c r="H18">
-        <v>0.5678884926497432</v>
+        <v>0.7597076509227776</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0135889560075686</v>
+        <v>0.04122227922415966</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.274232571797768</v>
+        <v>0.6269849641109744</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.524459867676399</v>
+        <v>1.153979633585038</v>
       </c>
       <c r="C19">
-        <v>0.8298303972919996</v>
+        <v>0.2547342562443191</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2708970715404817</v>
+        <v>0.4267003141016588</v>
       </c>
       <c r="F19">
-        <v>2.187166736845413</v>
+        <v>2.270620709261692</v>
       </c>
       <c r="G19">
-        <v>1.010133990447557</v>
+        <v>0.7327004797846257</v>
       </c>
       <c r="H19">
-        <v>0.5649578277679979</v>
+        <v>0.7596811212929424</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01372206608381177</v>
+        <v>0.04129437580220596</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.262911767432726</v>
+        <v>0.6240020620597448</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.669054818347206</v>
+        <v>1.194762444392552</v>
       </c>
       <c r="C20">
-        <v>0.8620933040312764</v>
+        <v>0.2642920990813593</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2784870286768495</v>
+        <v>0.4280632674650207</v>
       </c>
       <c r="F20">
-        <v>2.257023098770134</v>
+        <v>2.280702095034101</v>
       </c>
       <c r="G20">
-        <v>1.046831272851719</v>
+        <v>0.7378476252560802</v>
       </c>
       <c r="H20">
-        <v>0.5783185814003957</v>
+        <v>0.759840480942799</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01313261507621277</v>
+        <v>0.04097230737249369</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.31395629505046</v>
+        <v>0.637437946328248</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.160133559210635</v>
+        <v>1.331908212386907</v>
       </c>
       <c r="C21">
-        <v>0.9715061000100889</v>
+        <v>0.2963446715797318</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3043712701808801</v>
+        <v>0.4327867846089362</v>
       </c>
       <c r="F21">
-        <v>2.499905867388151</v>
+        <v>2.316340321633163</v>
       </c>
       <c r="G21">
-        <v>1.176471778388958</v>
+        <v>0.7560934397728545</v>
       </c>
       <c r="H21">
-        <v>0.6264326562509552</v>
+        <v>0.761077897484995</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01132951708612318</v>
+        <v>0.03993189616841519</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.487373249614734</v>
+        <v>0.682798491389363</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.48566657012924</v>
+        <v>1.421630358053903</v>
       </c>
       <c r="C22">
-        <v>1.043913412748537</v>
+        <v>0.3172475090715636</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3216041686881397</v>
+        <v>0.4359808753633132</v>
       </c>
       <c r="F22">
-        <v>2.665442301235316</v>
+        <v>2.34095403511887</v>
       </c>
       <c r="G22">
-        <v>1.266506437040078</v>
+        <v>0.7687354170838034</v>
       </c>
       <c r="H22">
-        <v>0.6605479332040147</v>
+        <v>0.7624128010448885</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.01029645644340249</v>
+        <v>0.0392831806554792</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.602358517819823</v>
+        <v>0.7126056086454469</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.311458761258621</v>
+        <v>1.373735822569699</v>
       </c>
       <c r="C23">
-        <v>1.005176117213807</v>
+        <v>0.3060954411225225</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3123756594425089</v>
+        <v>0.4342663679072629</v>
       </c>
       <c r="F23">
-        <v>2.576422401754826</v>
+        <v>2.32769589375954</v>
       </c>
       <c r="G23">
-        <v>1.217928176388057</v>
+        <v>0.7619220319115811</v>
       </c>
       <c r="H23">
-        <v>0.6420774739001729</v>
+        <v>0.7616520007618135</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01083361781346248</v>
+        <v>0.03962654117890629</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.540823013361148</v>
+        <v>0.6966822832430069</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.661096163675609</v>
+        <v>1.192522389436135</v>
       </c>
       <c r="C24">
-        <v>0.8603181102564577</v>
+        <v>0.2637674546994333</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2780688573753309</v>
+        <v>0.427987876984055</v>
       </c>
       <c r="F24">
-        <v>2.253157863560915</v>
+        <v>2.28014184371925</v>
       </c>
       <c r="G24">
-        <v>1.044793563393355</v>
+        <v>0.737561406237262</v>
       </c>
       <c r="H24">
-        <v>0.5775733857998375</v>
+        <v>0.7598290963206722</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01316434901888552</v>
+        <v>0.04098983742581286</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.311146501759808</v>
+        <v>0.6366992898254296</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.975120207797772</v>
+        <v>0.9974432477882829</v>
       </c>
       <c r="C25">
-        <v>0.7070325152040198</v>
+        <v>0.217916946762756</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2422292164302249</v>
+        <v>0.4216778662655187</v>
       </c>
       <c r="F25">
-        <v>1.929255906981396</v>
+        <v>2.234485866458471</v>
       </c>
       <c r="G25">
-        <v>0.877217361498694</v>
+        <v>0.7143143031844232</v>
       </c>
       <c r="H25">
-        <v>0.5177958393067286</v>
+        <v>0.7601025646401212</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01622095522376821</v>
+        <v>0.04259341008315243</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.069101422232322</v>
+        <v>0.57269687091609</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_186/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_186/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8541137727896171</v>
+        <v>2.479305854834081</v>
       </c>
       <c r="C2">
-        <v>0.183985948966523</v>
+        <v>0.5958374241561728</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4174314395421561</v>
+        <v>0.2166503466317664</v>
       </c>
       <c r="F2">
-        <v>2.205666631589509</v>
+        <v>1.707774171170485</v>
       </c>
       <c r="G2">
-        <v>0.6997424251554634</v>
+        <v>0.7668197229440921</v>
       </c>
       <c r="H2">
-        <v>0.7622076140005305</v>
+        <v>0.4805985490345535</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04388747973701257</v>
+        <v>0.01886108137928666</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5261687831778019</v>
+        <v>0.8944159263540712</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7571582265736083</v>
+        <v>2.147300791070677</v>
       </c>
       <c r="C3">
-        <v>0.1608815714697869</v>
+        <v>0.5211422999959154</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4148040345251474</v>
+        <v>0.1997360924124436</v>
       </c>
       <c r="F3">
-        <v>2.189102623575053</v>
+        <v>1.566408707520736</v>
       </c>
       <c r="G3">
-        <v>0.691424154893042</v>
+        <v>0.6985903742191795</v>
       </c>
       <c r="H3">
-        <v>0.7648105485959604</v>
+        <v>0.4589460227428077</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04483466890276588</v>
+        <v>0.02086062736176508</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.495007284331578</v>
+        <v>0.7776407032531267</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6977140531216435</v>
+        <v>1.944912625445625</v>
       </c>
       <c r="C4">
-        <v>0.1466413201532646</v>
+        <v>0.4754967121588152</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4133148069065484</v>
+        <v>0.1895334112925653</v>
       </c>
       <c r="F4">
-        <v>2.180387993191488</v>
+        <v>1.483365948879495</v>
       </c>
       <c r="G4">
-        <v>0.6870750226299691</v>
+        <v>0.6595019270545919</v>
       </c>
       <c r="H4">
-        <v>0.766985371236899</v>
+        <v>0.4472010104617112</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04545068618959647</v>
+        <v>0.02218258978410237</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4760572331909572</v>
+        <v>0.7065618679756795</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6735121508067152</v>
+        <v>1.862736983581527</v>
       </c>
       <c r="C5">
-        <v>0.1408247787686605</v>
+        <v>0.4569358794163634</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4127392152161242</v>
+        <v>0.185418350059841</v>
       </c>
       <c r="F5">
-        <v>2.177201813166249</v>
+        <v>1.450394507849694</v>
       </c>
       <c r="G5">
-        <v>0.6854920388774843</v>
+        <v>0.6442174978341768</v>
       </c>
       <c r="H5">
-        <v>0.7680161174217233</v>
+        <v>0.4427765476692542</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04571034971256349</v>
+        <v>0.02274369663064313</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4683812239829592</v>
+        <v>0.6777298058569698</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6694947841625662</v>
+        <v>1.849107933168227</v>
       </c>
       <c r="C6">
-        <v>0.1398581320219421</v>
+        <v>0.4538558862536775</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4126455308201287</v>
+        <v>0.1847375279792232</v>
       </c>
       <c r="F6">
-        <v>2.17669477388776</v>
+        <v>1.444970015626851</v>
       </c>
       <c r="G6">
-        <v>0.6852405803854964</v>
+        <v>0.6417167556680283</v>
       </c>
       <c r="H6">
-        <v>0.7681959840075336</v>
+        <v>0.4420629364198021</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04575398712943279</v>
+        <v>0.02283818464655507</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4671094308433865</v>
+        <v>0.6729496610455428</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6973875680820072</v>
+        <v>1.943803252024196</v>
       </c>
       <c r="C7">
-        <v>0.1465629308933103</v>
+        <v>0.4752462502700325</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4133069174908535</v>
+        <v>0.1894777458337025</v>
       </c>
       <c r="F7">
-        <v>2.180343546240181</v>
+        <v>1.482917861112966</v>
       </c>
       <c r="G7">
-        <v>0.6870529092060877</v>
+        <v>0.6592932638556874</v>
       </c>
       <c r="H7">
-        <v>0.7669986878895827</v>
+        <v>0.447139911503271</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04545415319264068</v>
+        <v>0.02219006802662093</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4759535241267656</v>
+        <v>0.7061725189792369</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8206655563329264</v>
+        <v>2.364483263741363</v>
       </c>
       <c r="C8">
-        <v>0.1760308170477458</v>
+        <v>0.5700282234352869</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4164998286592692</v>
+        <v>0.2107782956603543</v>
       </c>
       <c r="F8">
-        <v>2.199652636632095</v>
+        <v>1.658204675839045</v>
       </c>
       <c r="G8">
-        <v>0.6967160721696359</v>
+        <v>0.7426741226575189</v>
       </c>
       <c r="H8">
-        <v>0.7629851248006219</v>
+        <v>0.4727936314936017</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04420690557453621</v>
+        <v>0.01953015189528795</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5153863836239054</v>
+        <v>0.8540082735122212</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.063106749200131</v>
+        <v>3.204498469515215</v>
       </c>
       <c r="C9">
-        <v>0.2333880885129531</v>
+        <v>0.7583532624623501</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4237414736515888</v>
+        <v>0.2541640325434287</v>
       </c>
       <c r="F9">
-        <v>2.249116557699125</v>
+        <v>2.035452614951282</v>
       </c>
       <c r="G9">
-        <v>0.7217457707123032</v>
+        <v>0.9314306071787399</v>
       </c>
       <c r="H9">
-        <v>0.7597132284355865</v>
+        <v>0.5367730893455018</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04203556294866928</v>
+        <v>0.01512607705421054</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5941633002819771</v>
+        <v>1.150001112331481</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.241676097301365</v>
+        <v>3.836184874531966</v>
       </c>
       <c r="C10">
-        <v>0.2752711952300615</v>
+        <v>0.8993567125182267</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4296557123859586</v>
+        <v>0.2872789317208131</v>
       </c>
       <c r="F10">
-        <v>2.292602933335687</v>
+        <v>2.33872628412287</v>
       </c>
       <c r="G10">
-        <v>0.743932182203821</v>
+        <v>1.090095918611951</v>
       </c>
       <c r="H10">
-        <v>0.7601465546341473</v>
+        <v>0.5942266396291416</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04060928695851374</v>
+        <v>0.01248500526065488</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6529248781580179</v>
+        <v>1.372967219674294</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.323016128101642</v>
+        <v>4.128059550726562</v>
       </c>
       <c r="C11">
-        <v>0.2942703480332227</v>
+        <v>0.9643669958233829</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4324744613804512</v>
+        <v>0.3026762472515472</v>
       </c>
       <c r="F11">
-        <v>2.31395407718729</v>
+        <v>2.483786448399684</v>
       </c>
       <c r="G11">
-        <v>0.7548694890838021</v>
+        <v>1.167774521315124</v>
       </c>
       <c r="H11">
-        <v>0.7609671083279181</v>
+        <v>0.6231651170776331</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03999749547932741</v>
+        <v>0.01143816970997591</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6798497658408422</v>
+        <v>1.476044842366221</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.353833190165062</v>
+        <v>4.239360902746341</v>
       </c>
       <c r="C12">
-        <v>0.3014571348140294</v>
+        <v>0.9891367643501496</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4335602245336005</v>
+        <v>0.3085605627404107</v>
       </c>
       <c r="F12">
-        <v>2.322266021071641</v>
+        <v>2.539871461339402</v>
       </c>
       <c r="G12">
-        <v>0.7591341500843498</v>
+        <v>1.198089903175685</v>
       </c>
       <c r="H12">
-        <v>0.7613680609314599</v>
+        <v>0.6345767965271989</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03977118245730438</v>
+        <v>0.01106645818051444</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6900733370649448</v>
+        <v>1.515356805005482</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.347195503766102</v>
+        <v>4.215353560087749</v>
       </c>
       <c r="C13">
-        <v>0.2999096786076052</v>
+        <v>0.9837949343728383</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4333255706806582</v>
+        <v>0.3072907840015304</v>
       </c>
       <c r="F13">
-        <v>2.320465793602153</v>
+        <v>2.527738953880004</v>
       </c>
       <c r="G13">
-        <v>0.7582101875011631</v>
+        <v>1.19151903300741</v>
       </c>
       <c r="H13">
-        <v>0.7612776865257729</v>
+        <v>0.6320980622554657</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03981968411481329</v>
+        <v>0.01114537152067019</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6878702790057929</v>
+        <v>1.506877163244269</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.32555115940329</v>
+        <v>4.137200084546009</v>
       </c>
       <c r="C14">
-        <v>0.2948617655543728</v>
+        <v>0.9664016107801956</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4325634202346791</v>
+        <v>0.3031592422576281</v>
       </c>
       <c r="F14">
-        <v>2.314633355426395</v>
+        <v>2.48837665600638</v>
       </c>
       <c r="G14">
-        <v>0.755217872869963</v>
+        <v>1.170249874615422</v>
       </c>
       <c r="H14">
-        <v>0.7609982833431559</v>
+        <v>0.6240945688593911</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03997876896774066</v>
+        <v>0.01140707842652056</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6806903110894211</v>
+        <v>1.479273220911764</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.312295369105641</v>
+        <v>4.089433678611272</v>
       </c>
       <c r="C15">
-        <v>0.2917687581756638</v>
+        <v>0.9557683242261703</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4320989699820217</v>
+        <v>0.3006357267748996</v>
       </c>
       <c r="F15">
-        <v>2.311090378598237</v>
+        <v>2.46442058029001</v>
       </c>
       <c r="G15">
-        <v>0.7534010484268094</v>
+        <v>1.157342586030865</v>
       </c>
       <c r="H15">
-        <v>0.7608389082025724</v>
+        <v>0.619252824340208</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04007691197886309</v>
+        <v>0.01157067713894122</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6762959753944386</v>
+        <v>1.46240261713848</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.236362492432534</v>
+        <v>3.817211456981511</v>
       </c>
       <c r="C16">
-        <v>0.2740284703550628</v>
+        <v>0.8951278300223748</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4294740751608543</v>
+        <v>0.2862798657249996</v>
       </c>
       <c r="F16">
-        <v>2.29123925257538</v>
+        <v>2.329400158038126</v>
       </c>
       <c r="G16">
-        <v>0.743234526080812</v>
+        <v>1.085139181544946</v>
       </c>
       <c r="H16">
-        <v>0.7601055239169767</v>
+        <v>0.5923960066365339</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04065001701982407</v>
+        <v>0.01255673361977205</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6511691598297062</v>
+        <v>1.366267488958059</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.189807653387447</v>
+        <v>3.651453624537169</v>
       </c>
       <c r="C17">
-        <v>0.2631315838363264</v>
+        <v>0.8581672320741518</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4278965917028259</v>
+        <v>0.2775622724377556</v>
       </c>
       <c r="F17">
-        <v>2.279463870864078</v>
+        <v>2.248477961412718</v>
       </c>
       <c r="G17">
-        <v>0.737215073467965</v>
+        <v>1.042327486079259</v>
       </c>
       <c r="H17">
-        <v>0.7598157027458825</v>
+        <v>0.5766720412580355</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04101110673813313</v>
+        <v>0.0132029072573987</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.635804210323542</v>
+        <v>1.307742252042502</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.163040709213419</v>
+        <v>3.556531014174823</v>
       </c>
       <c r="C18">
-        <v>0.2568589332734348</v>
+        <v>0.8369882894081968</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4270013494544571</v>
+        <v>0.2725791250065797</v>
       </c>
       <c r="F18">
-        <v>2.272838595057323</v>
+        <v>2.202593113431291</v>
       </c>
       <c r="G18">
-        <v>0.7338322518910161</v>
+        <v>1.018213881635234</v>
       </c>
       <c r="H18">
-        <v>0.7597076509227776</v>
+        <v>0.5678884926496153</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04122227922415966</v>
+        <v>0.01358895600767962</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6269849641109744</v>
+        <v>1.274232571797768</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.153979633585038</v>
+        <v>3.524459867676285</v>
       </c>
       <c r="C19">
-        <v>0.2547342562443191</v>
+        <v>0.8298303972918291</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4267003141016588</v>
+        <v>0.2708970715404888</v>
       </c>
       <c r="F19">
-        <v>2.270620709261692</v>
+        <v>2.187166736845413</v>
       </c>
       <c r="G19">
-        <v>0.7327004797846257</v>
+        <v>1.010133990447557</v>
       </c>
       <c r="H19">
-        <v>0.7596811212929424</v>
+        <v>0.5649578277679979</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04129437580220596</v>
+        <v>0.01372206608386239</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6240020620597448</v>
+        <v>1.262911767432698</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.194762444392552</v>
+        <v>3.669054818347263</v>
       </c>
       <c r="C20">
-        <v>0.2642920990813593</v>
+        <v>0.8620933040313901</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4280632674650207</v>
+        <v>0.2784870286768637</v>
       </c>
       <c r="F20">
-        <v>2.280702095034101</v>
+        <v>2.257023098770134</v>
       </c>
       <c r="G20">
-        <v>0.7378476252560802</v>
+        <v>1.046831272851662</v>
       </c>
       <c r="H20">
-        <v>0.759840480942799</v>
+        <v>0.5783185814004099</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04097230737249369</v>
+        <v>0.01313261507620478</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.637437946328248</v>
+        <v>1.313956295050431</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.331908212386907</v>
+        <v>4.160133559210408</v>
       </c>
       <c r="C21">
-        <v>0.2963446715797318</v>
+        <v>0.9715061000098046</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4327867846089362</v>
+        <v>0.3043712701809014</v>
       </c>
       <c r="F21">
-        <v>2.316340321633163</v>
+        <v>2.499905867388122</v>
       </c>
       <c r="G21">
-        <v>0.7560934397728545</v>
+        <v>1.176471778388986</v>
       </c>
       <c r="H21">
-        <v>0.761077897484995</v>
+        <v>0.6264326562509837</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03993189616841519</v>
+        <v>0.01132951708618357</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.682798491389363</v>
+        <v>1.487373249614734</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.421630358053903</v>
+        <v>4.48566657012924</v>
       </c>
       <c r="C22">
-        <v>0.3172475090715636</v>
+        <v>1.043913412748509</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4359808753633132</v>
+        <v>0.3216041686881681</v>
       </c>
       <c r="F22">
-        <v>2.34095403511887</v>
+        <v>2.665442301235316</v>
       </c>
       <c r="G22">
-        <v>0.7687354170838034</v>
+        <v>1.266506437040078</v>
       </c>
       <c r="H22">
-        <v>0.7624128010448885</v>
+        <v>0.6605479332040147</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0392831806554792</v>
+        <v>0.01029645644339805</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7126056086454469</v>
+        <v>1.602358517819837</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.373735822569699</v>
+        <v>4.311458761258621</v>
       </c>
       <c r="C23">
-        <v>0.3060954411225225</v>
+        <v>1.005176117213892</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4342663679072629</v>
+        <v>0.3123756594424805</v>
       </c>
       <c r="F23">
-        <v>2.32769589375954</v>
+        <v>2.576422401754826</v>
       </c>
       <c r="G23">
-        <v>0.7619220319115811</v>
+        <v>1.21792817638817</v>
       </c>
       <c r="H23">
-        <v>0.7616520007618135</v>
+        <v>0.6420774739001729</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03962654117890629</v>
+        <v>0.01083361781340297</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6966822832430069</v>
+        <v>1.540823013361134</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.192522389436135</v>
+        <v>3.661096163675722</v>
       </c>
       <c r="C24">
-        <v>0.2637674546994333</v>
+        <v>0.8603181102563155</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.427987876984055</v>
+        <v>0.2780688573753309</v>
       </c>
       <c r="F24">
-        <v>2.28014184371925</v>
+        <v>2.253157863560901</v>
       </c>
       <c r="G24">
-        <v>0.737561406237262</v>
+        <v>1.044793563393384</v>
       </c>
       <c r="H24">
-        <v>0.7598290963206722</v>
+        <v>0.5775733857999654</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04098983742581286</v>
+        <v>0.01316434901883312</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6366992898254296</v>
+        <v>1.311146501759808</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9974432477882829</v>
+        <v>2.975120207797772</v>
       </c>
       <c r="C25">
-        <v>0.217916946762756</v>
+        <v>0.7070325152043893</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4216778662655187</v>
+        <v>0.2422292164302107</v>
       </c>
       <c r="F25">
-        <v>2.234485866458471</v>
+        <v>1.929255906981396</v>
       </c>
       <c r="G25">
-        <v>0.7143143031844232</v>
+        <v>0.8772173614986798</v>
       </c>
       <c r="H25">
-        <v>0.7601025646401212</v>
+        <v>0.5177958393068423</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04259341008315243</v>
+        <v>0.01622095522371492</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.57269687091609</v>
+        <v>1.069101422232315</v>
       </c>
       <c r="N25">
         <v>0</v>
